--- a/sources/case/process.xlsx
+++ b/sources/case/process.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,25 +33,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>addLocations</t>
-  </si>
-  <si>
-    <t>modifyLocations</t>
-  </si>
-  <si>
-    <t>Locations.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locations_Add_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locations_Add_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locations.xlsx</t>
+    <t>types</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +75,13 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,9 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,27 +398,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -431,22 +427,11 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/process.xlsx
+++ b/sources/case/process.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,6 +42,30 @@
   </si>
   <si>
     <t>types_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simpleGetApproversByRecord</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simpleGetApproversByRecord.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>simpleGetApproversByRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -113,9 +137,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -398,17 +423,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -432,6 +457,17 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/process.xlsx
+++ b/sources/case/process.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,28 +33,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>types</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>simpleGetApproversByRecord</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>simpleGetApproversByRecord.xlsx</t>
+    <t>addDepartment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>simpleGetApproversByRecord</t>
+      <t>addDepartment</t>
     </r>
     <r>
       <rPr>
@@ -64,8 +48,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_1</t>
+      <t>.xlsx</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_department_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TransferIn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Son</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_department_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,17 +471,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -449,13 +497,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -468,6 +516,50 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/process.xlsx
+++ b/sources/case/process.xlsx
@@ -19,22 +19,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>addDepartment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -50,15 +50,15 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>add_department_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -74,11 +74,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -94,39 +94,305 @@
       </rPr>
       <t>Son</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EditSon.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>add_department_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>approvalTypes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>approvalTypes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Add_Position</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Position.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Position_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Position_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,16 +444,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -471,17 +737,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -509,61 +775,182 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sources/case/process.xlsx
+++ b/sources/case/process.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="CaseList" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -235,8 +236,144 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>approvalTypes</t>
+    <t>types_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Add_Position</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Position.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Position_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Position_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApprovalTypes.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_Transfer_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelTransfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CancelTransfer</t>
     </r>
     <r>
       <rPr>
@@ -251,22 +388,173 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>types_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_5</t>
+    <r>
+      <t>CancelTransfer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MemberTransfer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberTransfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo</t>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_10</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_11</t>
     </r>
     <r>
       <rPr>
@@ -282,17 +570,17 @@
   </si>
   <si>
     <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_6</t>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_12</t>
     </r>
     <r>
       <rPr>
@@ -308,17 +596,17 @@
   </si>
   <si>
     <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_7</t>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_13</t>
     </r>
     <r>
       <rPr>
@@ -334,17 +622,17 @@
   </si>
   <si>
     <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_8</t>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_15</t>
     </r>
     <r>
       <rPr>
@@ -359,19 +647,137 @@
     </r>
   </si>
   <si>
-    <t>Add_Position</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Position.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Position_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Position_2</t>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth_20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Auth_11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -775,13 +1181,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -819,13 +1225,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,7 +1308,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -913,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -935,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -943,10 +1349,429 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/process.xlsx
+++ b/sources/case/process.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -368,12 +368,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CancelTransfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CancelTransfer</t>
+    <r>
+      <t>MemberTransfer</t>
     </r>
     <r>
       <rPr>
@@ -388,8 +384,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>CancelTransfer</t>
+    <t>MemberTransfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
     </r>
     <r>
       <rPr>
@@ -404,8 +420,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>MemberTransfer</t>
+    <t>GetInstances</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo</t>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
     </r>
     <r>
       <rPr>
@@ -420,28 +443,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MemberTransfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GetInstances</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GetInstances</t>
+    <r>
+      <t>GetInstanceInfo</t>
     </r>
     <r>
       <rPr>
@@ -456,45 +459,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GetInstances</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstanceInfo</t>
-  </si>
-  <si>
-    <r>
-      <t>GetInstanceInfo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GetInstanceInfo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
@@ -525,256 +489,6 @@
       <t>uth.xlsx</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_10</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth_20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>Auth_11</t>
@@ -1145,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1357,10 +1071,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
@@ -1368,35 +1082,35 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1408,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1622,10 +1336,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
@@ -1633,145 +1347,35 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/process.xlsx
+++ b/sources/case/process.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -34,12 +34,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>addDepartment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>addDepartment</t>
+    <t>TransferIn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TransferIn</t>
     </r>
     <r>
       <rPr>
@@ -54,16 +54,48 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>add_department_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TransferIn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TransferIn</t>
+    <t>TransferIn_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Son</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
     </r>
     <r>
       <rPr>
@@ -78,50 +110,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TransferIn_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Edit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Son</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditSon.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditSon_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_department_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TransferIn_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditSon_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update_direct_report</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Update_direct_report</t>
     </r>
@@ -133,13 +121,247 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>approvalTypes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>ApprovalTypes.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_Transfer_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MemberTransfer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>.xlsx</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Update_direct_report</t>
+    <t>MemberTransfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
     </r>
     <r>
       <rPr>
@@ -154,222 +376,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>approvalTypes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Add_Position</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Position.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Position_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Position_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mem_Transfer_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MemberTransfer</t>
+    <t>GetInstances</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
     </r>
     <r>
       <rPr>
@@ -384,12 +396,64 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MemberTransfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GetInstances</t>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>approve</t>
     </r>
     <r>
       <rPr>
@@ -405,7 +469,7 @@
   </si>
   <si>
     <r>
-      <t>GetInstances</t>
+      <t>approve</t>
     </r>
     <r>
       <rPr>
@@ -420,15 +484,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GetInstances</t>
+    <t>Auth_12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_13</t>
+  </si>
+  <si>
+    <t>houlong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-  </si>
-  <si>
-    <r>
-      <t>GetInstanceInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelTransfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CancelTransfer</t>
     </r>
     <r>
       <rPr>
@@ -443,55 +547,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>GetInstanceInfo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth_11</t>
+    <t>CancelTransfer_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +627,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -857,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -895,142 +954,142 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -1038,79 +1097,167 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1122,263 +1269,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
